--- a/Cyber_Twin/Black Box Test  Document.xlsx
+++ b/Cyber_Twin/Black Box Test  Document.xlsx
@@ -1546,7 +1546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1047"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
